--- a/论文图片素材/二维稀疏频谱表达算法性能.xlsx
+++ b/论文图片素材/二维稀疏频谱表达算法性能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100*100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二维稀疏频谱表达算法(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,12 +56,16 @@
     <t>无采样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>100*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +99,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,11 +171,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -281,37 +287,37 @@
                   <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000.0</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000.0</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000.0</c:v>
+                  <c:v>300000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000.0</c:v>
+                  <c:v>350000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000.0</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000.0</c:v>
+                  <c:v>1.5E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000.0</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000.0</c:v>
+                  <c:v>2.5E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200000.0</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300000.0</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400000.0</c:v>
+                  <c:v>5.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -397,37 +403,37 @@
                   <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000.0</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000.0</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000.0</c:v>
+                  <c:v>300000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000.0</c:v>
+                  <c:v>350000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000.0</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000.0</c:v>
+                  <c:v>1.5E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000.0</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000.0</c:v>
+                  <c:v>2.5E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200000.0</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300000.0</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400000.0</c:v>
+                  <c:v>5.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,49 +445,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>369.0</c:v>
+                  <c:v>669.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>372.0</c:v>
+                  <c:v>672.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>378.0</c:v>
+                  <c:v>673.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>419.0</c:v>
+                  <c:v>685.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>493.0</c:v>
+                  <c:v>873.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>737.0</c:v>
+                  <c:v>889.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1254.0</c:v>
+                  <c:v>948.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1863.0</c:v>
+                  <c:v>1016.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,37 +519,37 @@
                   <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000.0</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000.0</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000.0</c:v>
+                  <c:v>300000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000.0</c:v>
+                  <c:v>350000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000.0</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000.0</c:v>
+                  <c:v>1.5E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000.0</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000.0</c:v>
+                  <c:v>2.5E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200000.0</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300000.0</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400000.0</c:v>
+                  <c:v>5.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,49 +561,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>376.0</c:v>
+                  <c:v>676.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>381.0</c:v>
+                  <c:v>681.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>390.0</c:v>
+                  <c:v>690.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412.0</c:v>
+                  <c:v>712.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>508.0</c:v>
+                  <c:v>878.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>693.0</c:v>
+                  <c:v>897.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>867.0</c:v>
+                  <c:v>967.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>932.0</c:v>
+                  <c:v>1032.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>979.0</c:v>
+                  <c:v>1249.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1106.0</c:v>
+                  <c:v>1306.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1168.0</c:v>
+                  <c:v>1568.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1224.0</c:v>
+                  <c:v>1724.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,37 +635,37 @@
                   <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000.0</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000.0</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000.0</c:v>
+                  <c:v>300000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000.0</c:v>
+                  <c:v>350000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000.0</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000.0</c:v>
+                  <c:v>1.5E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000.0</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000.0</c:v>
+                  <c:v>2.5E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200000.0</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300000.0</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400000.0</c:v>
+                  <c:v>5.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,49 +677,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>397.0</c:v>
+                  <c:v>697.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>403.0</c:v>
+                  <c:v>703.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>408.0</c:v>
+                  <c:v>708.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>416.0</c:v>
+                  <c:v>716.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>527.0</c:v>
+                  <c:v>887.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>709.0</c:v>
+                  <c:v>903.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>879.0</c:v>
+                  <c:v>971.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>943.0</c:v>
+                  <c:v>1064.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>982.0</c:v>
+                  <c:v>1282.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1128.0</c:v>
+                  <c:v>1348.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1183.0</c:v>
+                  <c:v>1583.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1241.0</c:v>
+                  <c:v>1761.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1489.0</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1503.0</c:v>
+                  <c:v>2103.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1624.0</c:v>
+                  <c:v>2324.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,37 +751,37 @@
                   <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000.0</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000.0</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000.0</c:v>
+                  <c:v>300000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000.0</c:v>
+                  <c:v>350000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000.0</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000.0</c:v>
+                  <c:v>1.5E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000.0</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000.0</c:v>
+                  <c:v>2.5E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200000.0</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300000.0</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400000.0</c:v>
+                  <c:v>5.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,49 +793,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>358.0</c:v>
+                  <c:v>658.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>671.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000.0</c:v>
+                  <c:v>669.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000.0</c:v>
+                  <c:v>678.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,11 +852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2140945784"/>
-        <c:axId val="2097519496"/>
+        <c:axId val="2115995528"/>
+        <c:axId val="2080549496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2140945784"/>
+        <c:axId val="2115995528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097519496"/>
+        <c:crossAx val="2080549496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -868,7 +874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097519496"/>
+        <c:axId val="2080549496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140945784"/>
+        <c:crossAx val="2115995528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -954,37 +960,37 @@
                   <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25000.0</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30000.0</c:v>
+                  <c:v>250000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35000.0</c:v>
+                  <c:v>300000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40000.0</c:v>
+                  <c:v>350000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45000.0</c:v>
+                  <c:v>1.0E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000.0</c:v>
+                  <c:v>1.5E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55000.0</c:v>
+                  <c:v>2.0E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60000.0</c:v>
+                  <c:v>2.5E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>200000.0</c:v>
+                  <c:v>3.0E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>300000.0</c:v>
+                  <c:v>4.0E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400000.0</c:v>
+                  <c:v>5.0E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,49 +1066,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>369.0</c:v>
+                  <c:v>669.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>372.0</c:v>
+                  <c:v>672.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>378.0</c:v>
+                  <c:v>673.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>419.0</c:v>
+                  <c:v>685.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>493.0</c:v>
+                  <c:v>873.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>737.0</c:v>
+                  <c:v>889.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1254.0</c:v>
+                  <c:v>948.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1863.0</c:v>
+                  <c:v>1016.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,49 +1125,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>376.0</c:v>
+                  <c:v>676.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>381.0</c:v>
+                  <c:v>681.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>390.0</c:v>
+                  <c:v>690.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412.0</c:v>
+                  <c:v>712.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>508.0</c:v>
+                  <c:v>878.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>693.0</c:v>
+                  <c:v>897.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>867.0</c:v>
+                  <c:v>967.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>932.0</c:v>
+                  <c:v>1032.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>979.0</c:v>
+                  <c:v>1249.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1106.0</c:v>
+                  <c:v>1306.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1168.0</c:v>
+                  <c:v>1568.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1224.0</c:v>
+                  <c:v>1724.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,49 +1184,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>397.0</c:v>
+                  <c:v>697.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>403.0</c:v>
+                  <c:v>703.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>408.0</c:v>
+                  <c:v>708.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>416.0</c:v>
+                  <c:v>716.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>527.0</c:v>
+                  <c:v>887.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>709.0</c:v>
+                  <c:v>903.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>879.0</c:v>
+                  <c:v>971.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>943.0</c:v>
+                  <c:v>1064.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>982.0</c:v>
+                  <c:v>1282.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1128.0</c:v>
+                  <c:v>1348.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1183.0</c:v>
+                  <c:v>1583.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1241.0</c:v>
+                  <c:v>1761.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1489.0</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1503.0</c:v>
+                  <c:v>2103.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1624.0</c:v>
+                  <c:v>2324.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,11 +1241,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142688408"/>
-        <c:axId val="2142705704"/>
+        <c:axId val="2116880488"/>
+        <c:axId val="2116883544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142688408"/>
+        <c:axId val="2116880488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142705704"/>
+        <c:crossAx val="2116883544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +1262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142705704"/>
+        <c:axId val="2116883544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,14 +1273,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142688408"/>
+        <c:crossAx val="2116880488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1306,9 +1311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1679,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1702,18 +1707,18 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1721,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1730,10 +1735,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1744,16 +1749,16 @@
         <v>1866</v>
       </c>
       <c r="C3">
-        <v>369</v>
+        <v>669</v>
       </c>
       <c r="D3">
-        <v>376</v>
+        <v>676</v>
       </c>
       <c r="E3">
-        <v>397</v>
+        <v>697</v>
       </c>
       <c r="F3">
-        <v>358</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1764,16 +1769,16 @@
         <v>1865</v>
       </c>
       <c r="C4">
-        <v>372</v>
+        <v>672</v>
       </c>
       <c r="D4">
-        <v>381</v>
+        <v>681</v>
       </c>
       <c r="E4">
-        <v>403</v>
+        <v>703</v>
       </c>
       <c r="F4">
-        <v>2000</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1784,16 +1789,16 @@
         <v>1889</v>
       </c>
       <c r="C5">
-        <v>378</v>
+        <v>673</v>
       </c>
       <c r="D5">
-        <v>390</v>
+        <v>690</v>
       </c>
       <c r="E5">
-        <v>408</v>
+        <v>708</v>
       </c>
       <c r="F5">
-        <v>2000</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1804,237 +1809,240 @@
         <v>1866</v>
       </c>
       <c r="C6">
-        <v>419</v>
+        <v>685</v>
       </c>
       <c r="D6">
-        <v>412</v>
+        <v>712</v>
       </c>
       <c r="E6">
-        <v>416</v>
+        <v>716</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>25000</v>
+        <v>200000</v>
       </c>
       <c r="B7">
         <v>1877</v>
       </c>
       <c r="C7">
-        <v>493</v>
+        <v>873</v>
       </c>
       <c r="D7">
-        <v>508</v>
+        <v>878</v>
       </c>
       <c r="E7">
-        <v>527</v>
+        <v>887</v>
       </c>
       <c r="F7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>30000</v>
+        <v>250000</v>
       </c>
       <c r="B8">
         <v>1898</v>
       </c>
       <c r="C8">
-        <v>737</v>
+        <v>889</v>
       </c>
       <c r="D8">
-        <v>693</v>
+        <v>897</v>
       </c>
       <c r="E8">
-        <v>709</v>
+        <v>903</v>
       </c>
       <c r="F8">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>35000</v>
+        <v>300000</v>
       </c>
       <c r="B9">
         <v>1876</v>
       </c>
       <c r="C9">
-        <v>1254</v>
+        <v>948</v>
       </c>
       <c r="D9">
-        <v>867</v>
+        <v>967</v>
       </c>
       <c r="E9">
-        <v>879</v>
+        <v>971</v>
       </c>
       <c r="F9">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>40000</v>
+        <v>350000</v>
       </c>
       <c r="B10">
         <v>1861</v>
       </c>
       <c r="C10">
-        <v>1863</v>
+        <v>1016</v>
       </c>
       <c r="D10">
-        <v>932</v>
+        <v>1032</v>
       </c>
       <c r="E10">
-        <v>943</v>
+        <v>1064</v>
       </c>
       <c r="F10">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>45000</v>
+        <v>1000000</v>
       </c>
       <c r="B11">
         <v>1882</v>
       </c>
       <c r="C11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D11">
-        <v>979</v>
+        <v>1249</v>
       </c>
       <c r="E11">
-        <v>982</v>
+        <v>1282</v>
       </c>
       <c r="F11">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>50000</v>
+        <v>1500000</v>
       </c>
       <c r="B12">
         <v>1869</v>
       </c>
       <c r="C12">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D12">
-        <v>1106</v>
+        <v>1306</v>
       </c>
       <c r="E12">
-        <v>1128</v>
+        <v>1348</v>
       </c>
       <c r="F12">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>55000</v>
+        <v>2000000</v>
       </c>
       <c r="B13">
         <v>1860</v>
       </c>
       <c r="C13">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D13">
-        <v>1168</v>
+        <v>1568</v>
       </c>
       <c r="E13">
-        <v>1183</v>
+        <v>1583</v>
       </c>
       <c r="F13">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>60000</v>
+        <v>2500000</v>
       </c>
       <c r="B14">
         <v>1871</v>
       </c>
       <c r="C14">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D14">
-        <v>1224</v>
+        <v>1724</v>
       </c>
       <c r="E14">
-        <v>1241</v>
+        <v>1761</v>
       </c>
       <c r="F14">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>200000</v>
+        <v>3000000</v>
       </c>
       <c r="B15">
         <v>1858</v>
       </c>
       <c r="C15">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D15">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E15">
-        <v>1489</v>
+        <v>1989</v>
       </c>
       <c r="F15">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>300000</v>
+        <v>4000000</v>
       </c>
       <c r="B16">
         <v>1871</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E16">
-        <v>1503</v>
+        <v>2103</v>
       </c>
       <c r="F16">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>400000</v>
+        <v>5000000</v>
       </c>
       <c r="B17">
         <v>1867</v>
       </c>
       <c r="C17">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E17">
-        <v>1624</v>
+        <v>2324</v>
       </c>
       <c r="F17">
-        <v>2000</v>
-      </c>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17">
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
